--- a/ES.3-4.P.270 07.08.2020.xlsx
+++ b/ES.3-4.P.270 07.08.2020.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsint\Desktop\niko\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B8097C-13D4-49CE-B30B-7128B4F9367B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +26,77 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>SPESE CONDOMINIALI</t>
+  </si>
+  <si>
+    <t>Voce di spesa</t>
+  </si>
+  <si>
+    <t>Acqua giardino</t>
+  </si>
+  <si>
+    <t>Illuminazione parti esterne</t>
+  </si>
+  <si>
+    <t>Illuminazione scale</t>
+  </si>
+  <si>
+    <t>Pulizia scale</t>
+  </si>
+  <si>
+    <t>Giardinerie</t>
+  </si>
+  <si>
+    <t>Manutenzioni ordinarie</t>
+  </si>
+  <si>
+    <t>Manutenzioni straordinarie</t>
+  </si>
+  <si>
+    <t>TOTALI</t>
+  </si>
+  <si>
+    <t>Importo
+annuale</t>
+  </si>
+  <si>
+    <t>Importo
+bimestrale</t>
+  </si>
+  <si>
+    <t>Capitale</t>
+  </si>
+  <si>
+    <t>Tasso (%)</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>Interesse
+semplice</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +104,153 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Broadway"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -45,15 +258,359 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +887,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.77734375" customWidth="1"/>
+    <col min="2" max="3" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29">
+        <v>85.6</v>
+      </c>
+      <c r="C3" s="30">
+        <f>B3/6</f>
+        <v>14.266666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26">
+        <v>450.9</v>
+      </c>
+      <c r="C4" s="27">
+        <f>B4/6</f>
+        <v>75.149999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24">
+        <v>210.4</v>
+      </c>
+      <c r="C5" s="25">
+        <f t="shared" ref="C5:C10" si="0">B5/6</f>
+        <v>35.06666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22">
+        <v>890</v>
+      </c>
+      <c r="C6" s="23">
+        <f t="shared" si="0"/>
+        <v>148.33333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1250.4000000000001</v>
+      </c>
+      <c r="C7" s="21">
+        <f>B7/6</f>
+        <v>208.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <v>890.6</v>
+      </c>
+      <c r="C8" s="19">
+        <f t="shared" si="0"/>
+        <v>148.43333333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>2580.5</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" si="0"/>
+        <v>430.08333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13">
+        <f>SUM(B3:B9)</f>
+        <v>6358.4</v>
+      </c>
+      <c r="C10" s="14">
+        <f t="shared" si="0"/>
+        <v>1059.7333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834C4797-4F28-4B00-9E30-793A7169F623}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="4" width="6.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32">
+        <v>35120</v>
+      </c>
+      <c r="B2" s="33">
+        <v>7.25</v>
+      </c>
+      <c r="C2" s="33">
+        <v>2</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="35">
+        <f>A2*C2*B2/100</f>
+        <v>5092.3999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36">
+        <v>78500</v>
+      </c>
+      <c r="B3" s="37">
+        <v>3.25</v>
+      </c>
+      <c r="C3" s="37">
+        <v>10</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="39">
+        <f>A3*C3*B3/1200</f>
+        <v>2126.0416666666665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36">
+        <v>85430</v>
+      </c>
+      <c r="B4" s="37">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C4" s="37">
+        <v>6</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="39">
+        <f>A4*C4*B4/1200</f>
+        <v>1772.6724999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40">
+        <v>30200</v>
+      </c>
+      <c r="B5" s="41">
+        <v>7.15</v>
+      </c>
+      <c r="C5" s="41">
+        <v>90</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="43">
+        <f>A5*C5*B5/36500</f>
+        <v>532.43013698630136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="44">
+        <v>85200</v>
+      </c>
+      <c r="B6" s="45">
+        <v>6.75</v>
+      </c>
+      <c r="C6" s="45">
+        <v>150</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="47">
+        <f>A6*C6*B6/36000</f>
+        <v>2396.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>